--- a/Code/Results/Cases/Case_6_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_53/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.52841938853089</v>
+        <v>12.51192195968021</v>
       </c>
       <c r="C2">
-        <v>12.81835124025598</v>
+        <v>6.348783669657836</v>
       </c>
       <c r="D2">
-        <v>3.708855069816976</v>
+        <v>6.412556639069739</v>
       </c>
       <c r="E2">
-        <v>7.276214696171519</v>
+        <v>9.124341086184877</v>
       </c>
       <c r="F2">
-        <v>33.72383929379784</v>
+        <v>24.04482748243494</v>
       </c>
       <c r="G2">
-        <v>2.102821383480015</v>
+        <v>2.10891789647042</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.805374826930299</v>
+        <v>6.005259638795598</v>
       </c>
       <c r="K2">
-        <v>16.80740514636282</v>
+        <v>10.86818948308093</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.55301251771805</v>
+        <v>11.26260303050941</v>
       </c>
       <c r="N2">
-        <v>13.50451616615617</v>
+        <v>13.18891134192903</v>
       </c>
       <c r="O2">
-        <v>24.64519200690901</v>
+        <v>17.42550168666951</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.28298370157806</v>
+        <v>11.67019716827389</v>
       </c>
       <c r="C3">
-        <v>11.91256803239382</v>
+        <v>6.01552730403469</v>
       </c>
       <c r="D3">
-        <v>3.625430419628327</v>
+        <v>6.157597888490209</v>
       </c>
       <c r="E3">
-        <v>7.185124576380711</v>
+        <v>8.909111647510398</v>
       </c>
       <c r="F3">
-        <v>32.76623500456552</v>
+        <v>23.78712385871167</v>
       </c>
       <c r="G3">
-        <v>2.111748920317338</v>
+        <v>2.113583941266084</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.823959311909108</v>
+        <v>6.007943224059128</v>
       </c>
       <c r="K3">
-        <v>15.62828870198967</v>
+        <v>10.20363295364045</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.90302774778652</v>
+        <v>10.8185126485313</v>
       </c>
       <c r="N3">
-        <v>13.74927605482196</v>
+        <v>13.39065302746362</v>
       </c>
       <c r="O3">
-        <v>24.065174473927</v>
+        <v>17.41280080990845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.48782572380386</v>
+        <v>11.12281608896377</v>
       </c>
       <c r="C4">
-        <v>11.32688566983714</v>
+        <v>5.801056298474337</v>
       </c>
       <c r="D4">
-        <v>3.57431936080018</v>
+        <v>5.998115022018482</v>
       </c>
       <c r="E4">
-        <v>7.132347119628819</v>
+        <v>8.779018232763397</v>
       </c>
       <c r="F4">
-        <v>32.19719482397106</v>
+        <v>23.6454198766361</v>
       </c>
       <c r="G4">
-        <v>2.117372631888748</v>
+        <v>2.116542621045388</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.837791754900083</v>
+        <v>6.012014279255721</v>
       </c>
       <c r="K4">
-        <v>14.97826550130562</v>
+        <v>9.773059984538001</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.49796351905525</v>
+        <v>10.54087560907718</v>
       </c>
       <c r="N4">
-        <v>13.90291100194904</v>
+        <v>13.51735371651211</v>
       </c>
       <c r="O4">
-        <v>23.72636901785135</v>
+        <v>17.41745455043293</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.15600890758299</v>
+        <v>10.89202658972039</v>
       </c>
       <c r="C5">
-        <v>11.08070947130861</v>
+        <v>5.711226067143004</v>
       </c>
       <c r="D5">
-        <v>3.553540434646456</v>
+        <v>5.932484125977625</v>
       </c>
       <c r="E5">
-        <v>7.11163011689543</v>
+        <v>8.726585563678157</v>
       </c>
       <c r="F5">
-        <v>31.97018167906529</v>
+        <v>23.5917756855543</v>
       </c>
       <c r="G5">
-        <v>2.119701779335947</v>
+        <v>2.117772332505439</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.844020531735335</v>
+        <v>6.014270315958606</v>
       </c>
       <c r="K5">
-        <v>14.70758878908504</v>
+        <v>9.591948021498787</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.33160495065517</v>
+        <v>10.42665654004966</v>
       </c>
       <c r="N5">
-        <v>13.96638259187105</v>
+        <v>13.56971781776374</v>
       </c>
       <c r="O5">
-        <v>23.5926496103677</v>
+        <v>17.42237942739848</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.10044664222565</v>
+        <v>10.85323621772655</v>
       </c>
       <c r="C6">
-        <v>11.03937652004549</v>
+        <v>5.696164506158167</v>
       </c>
       <c r="D6">
-        <v>3.550093720896507</v>
+        <v>5.921550569410046</v>
       </c>
       <c r="E6">
-        <v>7.108237714858516</v>
+        <v>8.717916147987118</v>
       </c>
       <c r="F6">
-        <v>31.9327840947858</v>
+        <v>23.583114014535</v>
       </c>
       <c r="G6">
-        <v>2.120090841103492</v>
+        <v>2.117977989399028</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.845090088686334</v>
+        <v>6.014680630024374</v>
       </c>
       <c r="K6">
-        <v>14.66229980150341</v>
+        <v>9.56153395939997</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.30390998510728</v>
+        <v>10.40763061583725</v>
       </c>
       <c r="N6">
-        <v>13.97697481647067</v>
+        <v>13.57845767252066</v>
       </c>
       <c r="O6">
-        <v>23.57070766087344</v>
+        <v>17.42337708493583</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.48338199024317</v>
+        <v>11.11973492508635</v>
       </c>
       <c r="C7">
-        <v>11.32359614518088</v>
+        <v>5.799854593973386</v>
       </c>
       <c r="D7">
-        <v>3.574038900892675</v>
+        <v>5.997232355881837</v>
       </c>
       <c r="E7">
-        <v>7.13206452704966</v>
+        <v>8.778308668558674</v>
       </c>
       <c r="F7">
-        <v>32.19411335448284</v>
+        <v>23.64467988607323</v>
       </c>
       <c r="G7">
-        <v>2.117403889837945</v>
+        <v>2.11655910748759</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.837873383343215</v>
+        <v>6.012042303761125</v>
       </c>
       <c r="K7">
-        <v>14.97463822065469</v>
+        <v>9.77064029276365</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.49572487804735</v>
+        <v>10.53933934658543</v>
       </c>
       <c r="N7">
-        <v>13.90376347495852</v>
+        <v>13.51805692415422</v>
       </c>
       <c r="O7">
-        <v>23.7245480516329</v>
+        <v>17.41750884352627</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.10442733523061</v>
+        <v>12.22801149037919</v>
       </c>
       <c r="C8">
-        <v>12.5121149865487</v>
+        <v>6.2359452586643</v>
       </c>
       <c r="D8">
-        <v>3.680079276107744</v>
+        <v>6.32531211744352</v>
       </c>
       <c r="E8">
-        <v>7.244151316934848</v>
+        <v>9.049740899751969</v>
       </c>
       <c r="F8">
-        <v>33.38979584483856</v>
+        <v>23.95251151048383</v>
       </c>
       <c r="G8">
-        <v>2.105871144503432</v>
+        <v>2.110507583129618</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.811269680016795</v>
+        <v>6.005674553092553</v>
       </c>
       <c r="K8">
-        <v>16.40709750202378</v>
+        <v>10.6437333167559</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.33025287757644</v>
+        <v>11.11060631040205</v>
       </c>
       <c r="N8">
-        <v>13.58822665226736</v>
+        <v>13.25789722606733</v>
       </c>
       <c r="O8">
-        <v>24.4416009326086</v>
+        <v>17.41847654545565</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.24658709412174</v>
+        <v>14.16085703659466</v>
       </c>
       <c r="C9">
-        <v>14.61249811042423</v>
+        <v>7.011480554254835</v>
       </c>
       <c r="D9">
-        <v>3.888058815002739</v>
+        <v>6.94159897923652</v>
       </c>
       <c r="E9">
-        <v>7.489062253922555</v>
+        <v>9.595603746122563</v>
       </c>
       <c r="F9">
-        <v>35.88014930191083</v>
+        <v>24.6892343444841</v>
       </c>
       <c r="G9">
-        <v>2.084300794025756</v>
+        <v>2.099362194248848</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.779126838176584</v>
+        <v>6.012971060151107</v>
       </c>
       <c r="K9">
-        <v>19.15130967999064</v>
+        <v>12.17690519845189</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.91186462097707</v>
+        <v>12.18501014581213</v>
       </c>
       <c r="N9">
-        <v>12.99509344369049</v>
+        <v>12.76918974999576</v>
       </c>
       <c r="O9">
-        <v>25.98562060614677</v>
+        <v>17.52370122046682</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.3833361798178</v>
+        <v>15.4371352110877</v>
       </c>
       <c r="C10">
-        <v>16.02132210030337</v>
+        <v>7.531347618023633</v>
       </c>
       <c r="D10">
-        <v>4.039868347947655</v>
+        <v>7.373573506599317</v>
       </c>
       <c r="E10">
-        <v>7.684470939096341</v>
+        <v>10.00142128248132</v>
       </c>
       <c r="F10">
-        <v>37.79389171063164</v>
+        <v>25.31362443302563</v>
       </c>
       <c r="G10">
-        <v>2.068964324690028</v>
+        <v>2.091581476424251</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.768930455193684</v>
+        <v>6.031162209113509</v>
       </c>
       <c r="K10">
-        <v>20.99011969464469</v>
+        <v>13.19461125057691</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.03274485478819</v>
+        <v>12.9390585385101</v>
       </c>
       <c r="N10">
-        <v>12.57366084994931</v>
+        <v>12.42175629674022</v>
       </c>
       <c r="O10">
-        <v>27.20503448333379</v>
+        <v>17.67006539983019</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.31369384628402</v>
+        <v>15.98715404558945</v>
       </c>
       <c r="C11">
-        <v>16.63455413120332</v>
+        <v>7.756863702406874</v>
       </c>
       <c r="D11">
-        <v>4.108542836183123</v>
+        <v>7.564861395320792</v>
       </c>
       <c r="E11">
-        <v>7.776779943956356</v>
+        <v>10.18639818696043</v>
       </c>
       <c r="F11">
-        <v>38.68235825430661</v>
+        <v>25.61598235607311</v>
       </c>
       <c r="G11">
-        <v>2.062067113034596</v>
+        <v>2.088122887267796</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.76749767575725</v>
+        <v>6.042391143308883</v>
       </c>
       <c r="K11">
-        <v>21.79001392429797</v>
+        <v>13.63420391690074</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.59451414010674</v>
+        <v>13.27321766581149</v>
       </c>
       <c r="N11">
-        <v>12.38480512818754</v>
+        <v>12.26587976735142</v>
       </c>
       <c r="O11">
-        <v>27.77868295611162</v>
+        <v>17.75289901147944</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.66018361136013</v>
+        <v>16.19108847436557</v>
       </c>
       <c r="C12">
-        <v>16.86292919241818</v>
+        <v>7.840677631148719</v>
       </c>
       <c r="D12">
-        <v>4.134481631990914</v>
+        <v>7.63649952072586</v>
       </c>
       <c r="E12">
-        <v>7.812232324118408</v>
+        <v>10.25644631786621</v>
       </c>
       <c r="F12">
-        <v>39.02138763307616</v>
+        <v>25.73312235377281</v>
       </c>
       <c r="G12">
-        <v>2.059463837118399</v>
+        <v>2.086824193114423</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.767442709028306</v>
+        <v>6.047081823401961</v>
       </c>
       <c r="K12">
-        <v>22.08782184003759</v>
+        <v>13.7973297422046</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.83406256041417</v>
+        <v>13.39840114596046</v>
       </c>
       <c r="N12">
-        <v>12.31368450368383</v>
+        <v>12.20713601942548</v>
       </c>
       <c r="O12">
-        <v>27.99869153192728</v>
+        <v>17.78670200018332</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.58581653856218</v>
+        <v>16.14736001863884</v>
       </c>
       <c r="C13">
-        <v>16.81391317628922</v>
+        <v>7.822697301190641</v>
       </c>
       <c r="D13">
-        <v>4.128898369580951</v>
+        <v>7.621107154076006</v>
       </c>
       <c r="E13">
-        <v>7.804574800242133</v>
+        <v>10.2413609056187</v>
       </c>
       <c r="F13">
-        <v>38.94825581795874</v>
+        <v>25.70777648171913</v>
       </c>
       <c r="G13">
-        <v>2.060024168016701</v>
+        <v>2.087103411484419</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.767432413010601</v>
+        <v>6.046051876471999</v>
       </c>
       <c r="K13">
-        <v>22.0239073445657</v>
+        <v>13.76234575859467</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.78265220334041</v>
+        <v>13.37150205828008</v>
       </c>
       <c r="N13">
-        <v>12.328984251893</v>
+        <v>12.21977541896951</v>
       </c>
       <c r="O13">
-        <v>27.95118386850388</v>
+        <v>17.77931205031313</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.34231526854356</v>
+        <v>16.00401865969393</v>
       </c>
       <c r="C14">
-        <v>16.65341888689434</v>
+        <v>7.763790890347856</v>
       </c>
       <c r="D14">
-        <v>4.110678229974953</v>
+        <v>7.57077135381121</v>
       </c>
       <c r="E14">
-        <v>7.779686631474384</v>
+        <v>10.1921613386466</v>
       </c>
       <c r="F14">
-        <v>38.71019831836841</v>
+        <v>25.62556651454987</v>
       </c>
       <c r="G14">
-        <v>2.061852786183673</v>
+        <v>2.088015826260972</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.767483220928804</v>
+        <v>6.042768180047213</v>
       </c>
       <c r="K14">
-        <v>21.81461585603111</v>
+        <v>13.64769114235493</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.61430356042161</v>
+        <v>13.28354416135285</v>
       </c>
       <c r="N14">
-        <v>12.37894615462324</v>
+        <v>12.26104137899372</v>
       </c>
       <c r="O14">
-        <v>27.79672704034309</v>
+        <v>17.75563063284655</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.19241174772339</v>
+        <v>15.91565349035721</v>
       </c>
       <c r="C15">
-        <v>16.55461525567711</v>
+        <v>7.727502617052282</v>
       </c>
       <c r="D15">
-        <v>4.099508883307116</v>
+        <v>7.539833962501927</v>
       </c>
       <c r="E15">
-        <v>7.764506838550862</v>
+        <v>10.16202391855432</v>
       </c>
       <c r="F15">
-        <v>38.56471928128391</v>
+        <v>25.57555501223971</v>
       </c>
       <c r="G15">
-        <v>2.062973890396666</v>
+        <v>2.088576119512886</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.767578670122841</v>
+        <v>6.040814342503354</v>
       </c>
       <c r="K15">
-        <v>21.68576050813225</v>
+        <v>13.57702784592705</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.51065365789903</v>
+        <v>13.22948874963132</v>
       </c>
       <c r="N15">
-        <v>12.40960028474833</v>
+        <v>12.28635397212679</v>
       </c>
       <c r="O15">
-        <v>27.70248204912268</v>
+        <v>17.74144516440282</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.32171124133811</v>
+        <v>15.40057932217507</v>
       </c>
       <c r="C16">
-        <v>15.98070068340591</v>
+        <v>7.516388154386341</v>
       </c>
       <c r="D16">
-        <v>4.035371531167871</v>
+        <v>7.360963077610369</v>
       </c>
       <c r="E16">
-        <v>7.678507509663481</v>
+        <v>9.989335498283266</v>
       </c>
       <c r="F16">
-        <v>37.7361884455589</v>
+        <v>25.2942341690294</v>
       </c>
       <c r="G16">
-        <v>2.069416433171892</v>
+        <v>2.091809077839522</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.769090822505234</v>
+        <v>6.030488982534635</v>
       </c>
       <c r="K16">
-        <v>20.93712237908178</v>
+        <v>13.16541439048251</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.99986409456985</v>
+        <v>12.91703487265908</v>
       </c>
       <c r="N16">
-        <v>12.58605906688917</v>
+        <v>12.43198446518201</v>
       </c>
       <c r="O16">
-        <v>27.16793050810358</v>
+        <v>17.66498755529196</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.77701215682982</v>
+        <v>15.07680406448024</v>
       </c>
       <c r="C17">
-        <v>15.62163202798498</v>
+        <v>7.384059647605135</v>
       </c>
       <c r="D17">
-        <v>3.995917874709851</v>
+        <v>7.249857977362431</v>
       </c>
       <c r="E17">
-        <v>7.626628092661624</v>
+        <v>9.883452862481077</v>
       </c>
       <c r="F17">
-        <v>37.23248932144125</v>
+        <v>25.12635319250008</v>
       </c>
       <c r="G17">
-        <v>2.07338711607164</v>
+        <v>2.093812673134384</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.7708577799984</v>
+        <v>6.02492097831126</v>
       </c>
       <c r="K17">
-        <v>20.46859982346426</v>
+        <v>12.90693206789277</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.71059416352715</v>
+        <v>12.72302252814288</v>
       </c>
       <c r="N17">
-        <v>12.69503013841914</v>
+        <v>12.52186036110938</v>
       </c>
       <c r="O17">
-        <v>26.84488231955572</v>
+        <v>17.622316843652</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.45978278065597</v>
+        <v>14.88769697946185</v>
       </c>
       <c r="C18">
-        <v>15.41249408177193</v>
+        <v>7.306914885426366</v>
       </c>
       <c r="D18">
-        <v>3.973189514262502</v>
+        <v>7.185464283513836</v>
       </c>
       <c r="E18">
-        <v>7.59710955453035</v>
+        <v>9.822589444452063</v>
       </c>
       <c r="F18">
-        <v>36.94445580923583</v>
+        <v>25.03151664656083</v>
       </c>
       <c r="G18">
-        <v>2.075678612507825</v>
+        <v>2.094972742821944</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.772174095520053</v>
+        <v>6.021995591072182</v>
       </c>
       <c r="K18">
-        <v>20.19566323310733</v>
+        <v>12.75605885929967</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.54328564448173</v>
+        <v>12.6106015637252</v>
       </c>
       <c r="N18">
-        <v>12.75797702756583</v>
+        <v>12.57376094764692</v>
       </c>
       <c r="O18">
-        <v>26.66085053989437</v>
+        <v>17.59929774091575</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.35169390848524</v>
+        <v>14.82317241706892</v>
       </c>
       <c r="C19">
-        <v>15.34123124014276</v>
+        <v>7.280617858298835</v>
       </c>
       <c r="D19">
-        <v>3.965488350536226</v>
+        <v>7.163579300380056</v>
       </c>
       <c r="E19">
-        <v>7.587170104282784</v>
+        <v>9.801990225433967</v>
       </c>
       <c r="F19">
-        <v>36.84722169312916</v>
+        <v>24.99970238619809</v>
       </c>
       <c r="G19">
-        <v>2.076455872947205</v>
+        <v>2.095366855917261</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.772670527914074</v>
+        <v>6.021052293961155</v>
       </c>
       <c r="K19">
-        <v>20.10265337869415</v>
+        <v>12.70459716862835</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.48648020573377</v>
+        <v>12.5723978841057</v>
       </c>
       <c r="N19">
-        <v>12.77933659969236</v>
+        <v>12.59136989395516</v>
       </c>
       <c r="O19">
-        <v>26.59884439738129</v>
+        <v>17.59176255878926</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.8354021431941</v>
+        <v>15.11156821975933</v>
       </c>
       <c r="C20">
-        <v>15.66012481810299</v>
+        <v>7.398253204289837</v>
       </c>
       <c r="D20">
-        <v>4.000121566226196</v>
+        <v>7.261736285957096</v>
       </c>
       <c r="E20">
-        <v>7.632117475956369</v>
+        <v>9.894720760938338</v>
       </c>
       <c r="F20">
-        <v>37.28593504660233</v>
+        <v>25.14404588436945</v>
       </c>
       <c r="G20">
-        <v>2.072963656691932</v>
+        <v>2.093598599245126</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.770638448694602</v>
+        <v>6.025484915292766</v>
       </c>
       <c r="K20">
-        <v>20.5188312466895</v>
+        <v>12.93467560550006</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.74148389198895</v>
+        <v>12.74376202970342</v>
       </c>
       <c r="N20">
-        <v>12.68340220252371</v>
+        <v>12.51227176767264</v>
       </c>
       <c r="O20">
-        <v>26.87908710277402</v>
+        <v>17.62670076597861</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.41399386242446</v>
+        <v>16.04623903115503</v>
       </c>
       <c r="C21">
-        <v>16.7006631107514</v>
+        <v>7.781136147906127</v>
       </c>
       <c r="D21">
-        <v>4.116031815661007</v>
+        <v>7.585578208534644</v>
       </c>
       <c r="E21">
-        <v>7.786983345080984</v>
+        <v>10.20661279261854</v>
       </c>
       <c r="F21">
-        <v>38.78005103171417</v>
+        <v>25.64964177543494</v>
       </c>
       <c r="G21">
-        <v>2.061315469120517</v>
+        <v>2.08774753467234</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.767454840815591</v>
+        <v>6.043720669034667</v>
       </c>
       <c r="K21">
-        <v>21.87622670260113</v>
+        <v>13.6814583895553</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.66386214562127</v>
+        <v>13.30941688477175</v>
       </c>
       <c r="N21">
-        <v>12.36426052290765</v>
+        <v>12.24891311813909</v>
       </c>
       <c r="O21">
-        <v>27.84201869648821</v>
+        <v>17.76251956173119</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.41188761765262</v>
+        <v>16.63179411790671</v>
       </c>
       <c r="C22">
-        <v>17.35838888396465</v>
+        <v>8.022139330826901</v>
       </c>
       <c r="D22">
-        <v>4.19139353300673</v>
+        <v>7.792557194806101</v>
       </c>
       <c r="E22">
-        <v>7.891098382926348</v>
+        <v>10.41044007973233</v>
       </c>
       <c r="F22">
-        <v>39.77166084446824</v>
+        <v>25.99548856556265</v>
       </c>
       <c r="G22">
-        <v>2.05375096962038</v>
+        <v>2.083987311314362</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.768230271684498</v>
+        <v>6.058201388054209</v>
       </c>
       <c r="K22">
-        <v>22.73375613783348</v>
+        <v>14.15007864053641</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.35360593594001</v>
+        <v>13.67117763502805</v>
       </c>
       <c r="N22">
-        <v>12.15798036656944</v>
+        <v>12.07842955814485</v>
       </c>
       <c r="O22">
-        <v>28.48760429320073</v>
+        <v>17.86552600232584</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.88232334563036</v>
+        <v>16.32157107676487</v>
       </c>
       <c r="C23">
-        <v>17.00934361307805</v>
+        <v>7.894356986192941</v>
       </c>
       <c r="D23">
-        <v>4.151210523406864</v>
+        <v>7.682529659151989</v>
       </c>
       <c r="E23">
-        <v>7.835262212705313</v>
+        <v>10.30167046377113</v>
       </c>
       <c r="F23">
-        <v>39.24101903105171</v>
+        <v>25.80949151965554</v>
       </c>
       <c r="G23">
-        <v>2.057784900629374</v>
+        <v>2.085988596542669</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.767545678500938</v>
+        <v>6.050233674031078</v>
       </c>
       <c r="K23">
-        <v>22.27872641199546</v>
+        <v>13.90173813555571</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.98761659260634</v>
+        <v>13.47884752674436</v>
       </c>
       <c r="N23">
-        <v>12.26787001983203</v>
+        <v>12.16928018894094</v>
       </c>
       <c r="O23">
-        <v>28.14152913785966</v>
+        <v>17.80921455607818</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.80901673479899</v>
+        <v>15.09586058226898</v>
       </c>
       <c r="C24">
-        <v>15.64273066180769</v>
+        <v>7.391839621327562</v>
       </c>
       <c r="D24">
-        <v>3.998221219439936</v>
+        <v>7.256367712033686</v>
       </c>
       <c r="E24">
-        <v>7.629634767960057</v>
+        <v>9.889626509172658</v>
       </c>
       <c r="F24">
-        <v>37.26176740719326</v>
+        <v>25.1360417848415</v>
       </c>
       <c r="G24">
-        <v>2.073155075372315</v>
+        <v>2.093695356536117</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.770736674472973</v>
+        <v>6.025229101579688</v>
       </c>
       <c r="K24">
-        <v>20.49613277339742</v>
+        <v>12.92213981892492</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.72752176756789</v>
+        <v>12.73438843786522</v>
       </c>
       <c r="N24">
-        <v>12.68865826299755</v>
+        <v>12.51660605300561</v>
       </c>
       <c r="O24">
-        <v>26.86361785118654</v>
+        <v>17.62471408998907</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.42171895266577</v>
+        <v>13.66342892391674</v>
       </c>
       <c r="C25">
-        <v>14.06834830246917</v>
+        <v>6.810373719452036</v>
       </c>
       <c r="D25">
-        <v>3.831903102689959</v>
+        <v>6.778259396678084</v>
       </c>
       <c r="E25">
-        <v>7.420103472506298</v>
+        <v>9.446852370734446</v>
       </c>
       <c r="F25">
-        <v>35.19142181182846</v>
+        <v>24.47544407411505</v>
       </c>
       <c r="G25">
-        <v>2.090036563779659</v>
+        <v>2.102303281568769</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.785558702462634</v>
+        <v>6.008800011050034</v>
       </c>
       <c r="K25">
-        <v>18.44067304814637</v>
+        <v>11.78128770744072</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.49078858261773</v>
+        <v>11.90009213263005</v>
       </c>
       <c r="N25">
-        <v>13.15294354613089</v>
+        <v>12.8992467638886</v>
       </c>
       <c r="O25">
-        <v>25.55308647145709</v>
+        <v>17.48353933189924</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.51192195968021</v>
+        <v>11.67609660358184</v>
       </c>
       <c r="C2">
-        <v>6.348783669657836</v>
+        <v>7.475795293044269</v>
       </c>
       <c r="D2">
-        <v>6.412556639069739</v>
+        <v>7.269541112190955</v>
       </c>
       <c r="E2">
-        <v>9.124341086184877</v>
+        <v>9.581547712729177</v>
       </c>
       <c r="F2">
-        <v>24.04482748243494</v>
+        <v>20.63289327522072</v>
       </c>
       <c r="G2">
-        <v>2.10891789647042</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>21.77200383954031</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.599686303528783</v>
       </c>
       <c r="J2">
-        <v>6.005259638795598</v>
+        <v>9.042118237008468</v>
       </c>
       <c r="K2">
-        <v>10.86818948308093</v>
+        <v>13.77782720013477</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.969619610046164</v>
       </c>
       <c r="M2">
-        <v>11.26260303050941</v>
+        <v>10.75480502555541</v>
       </c>
       <c r="N2">
-        <v>13.18891134192903</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>17.42550168666951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.9806454794292</v>
+      </c>
+      <c r="P2">
+        <v>12.63917331857067</v>
+      </c>
+      <c r="Q2">
+        <v>14.582123995397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.67019716827389</v>
+        <v>10.939904184128</v>
       </c>
       <c r="C3">
-        <v>6.01552730403469</v>
+        <v>7.095399148109238</v>
       </c>
       <c r="D3">
-        <v>6.157597888490209</v>
+        <v>6.992020325839708</v>
       </c>
       <c r="E3">
-        <v>8.909111647510398</v>
+        <v>9.357876756236273</v>
       </c>
       <c r="F3">
-        <v>23.78712385871167</v>
+        <v>20.44512722764247</v>
       </c>
       <c r="G3">
-        <v>2.113583941266084</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>21.59663962211662</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.732240883893171</v>
       </c>
       <c r="J3">
-        <v>6.007943224059128</v>
+        <v>9.092465121411205</v>
       </c>
       <c r="K3">
-        <v>10.20363295364045</v>
+        <v>13.89143551661585</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.972544176097698</v>
       </c>
       <c r="M3">
-        <v>10.8185126485313</v>
+        <v>10.16698249087657</v>
       </c>
       <c r="N3">
-        <v>13.39065302746362</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>17.41280080990845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.51992231127383</v>
+      </c>
+      <c r="P3">
+        <v>12.7773750652837</v>
+      </c>
+      <c r="Q3">
+        <v>14.60998228059451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.12281608896377</v>
+        <v>10.45913057244895</v>
       </c>
       <c r="C4">
-        <v>5.801056298474337</v>
+        <v>6.853844892747535</v>
       </c>
       <c r="D4">
-        <v>5.998115022018482</v>
+        <v>6.819523890531251</v>
       </c>
       <c r="E4">
-        <v>8.779018232763397</v>
+        <v>9.222958109334758</v>
       </c>
       <c r="F4">
-        <v>23.6454198766361</v>
+        <v>20.33997436329497</v>
       </c>
       <c r="G4">
-        <v>2.116542621045388</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>21.5018499007999</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.817664614153327</v>
       </c>
       <c r="J4">
-        <v>6.012014279255721</v>
+        <v>9.126535130262994</v>
       </c>
       <c r="K4">
-        <v>9.773059984538001</v>
+        <v>13.96553401265975</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.976629121427298</v>
       </c>
       <c r="M4">
-        <v>10.54087560907718</v>
+        <v>9.787322259159588</v>
       </c>
       <c r="N4">
-        <v>13.51735371651211</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>17.41745455043293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.22984490725435</v>
+      </c>
+      <c r="P4">
+        <v>12.86445234782668</v>
+      </c>
+      <c r="Q4">
+        <v>14.6339279369568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.89202658972039</v>
+        <v>10.25122641083773</v>
       </c>
       <c r="C5">
-        <v>5.711226067143004</v>
+        <v>6.761215488464803</v>
       </c>
       <c r="D5">
-        <v>5.932484125977625</v>
+        <v>6.750133378591001</v>
       </c>
       <c r="E5">
-        <v>8.726585563678157</v>
+        <v>9.169088543897606</v>
       </c>
       <c r="F5">
-        <v>23.5917756855543</v>
+        <v>20.29501368485554</v>
       </c>
       <c r="G5">
-        <v>2.117772332505439</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>21.45822198943931</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.856449977373207</v>
       </c>
       <c r="J5">
-        <v>6.014270315958606</v>
+        <v>9.13993186994491</v>
       </c>
       <c r="K5">
-        <v>9.591948021498787</v>
+        <v>13.99334237018492</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.978730779775059</v>
       </c>
       <c r="M5">
-        <v>10.42665654004966</v>
+        <v>9.628076800763422</v>
       </c>
       <c r="N5">
-        <v>13.56971781776374</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>17.42237942739848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.11045597708269</v>
+      </c>
+      <c r="P5">
+        <v>12.90043135227694</v>
+      </c>
+      <c r="Q5">
+        <v>14.6421131937431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.85323621772655</v>
+        <v>10.21044921593387</v>
       </c>
       <c r="C6">
-        <v>5.696164506158167</v>
+        <v>6.755237462770693</v>
       </c>
       <c r="D6">
-        <v>5.921550569410046</v>
+        <v>6.740201712931526</v>
       </c>
       <c r="E6">
-        <v>8.717916147987118</v>
+        <v>9.160715023997088</v>
       </c>
       <c r="F6">
-        <v>23.583114014535</v>
+        <v>20.28201745523638</v>
       </c>
       <c r="G6">
-        <v>2.117977989399028</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>21.44115582011304</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.866761362661165</v>
       </c>
       <c r="J6">
-        <v>6.014680630024374</v>
+        <v>9.140656450793809</v>
       </c>
       <c r="K6">
-        <v>9.56153395939997</v>
+        <v>13.99379932060766</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.978956304517787</v>
       </c>
       <c r="M6">
-        <v>10.40763061583725</v>
+        <v>9.601492775510298</v>
       </c>
       <c r="N6">
-        <v>13.57845767252066</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>17.42337708493583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.0910952196523</v>
+      </c>
+      <c r="P6">
+        <v>12.90635809620512</v>
+      </c>
+      <c r="Q6">
+        <v>14.63960267356561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.11973492508635</v>
+        <v>10.44082392844789</v>
       </c>
       <c r="C7">
-        <v>5.799854593973386</v>
+        <v>6.87815145705803</v>
       </c>
       <c r="D7">
-        <v>5.997232355881837</v>
+        <v>6.82293128336249</v>
       </c>
       <c r="E7">
-        <v>8.778308668558674</v>
+        <v>9.223659527151092</v>
       </c>
       <c r="F7">
-        <v>23.64467988607323</v>
+        <v>20.32389065677242</v>
       </c>
       <c r="G7">
-        <v>2.11655910748759</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>21.47398111358682</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.828261226565239</v>
       </c>
       <c r="J7">
-        <v>6.012042303761125</v>
+        <v>9.122493286325488</v>
       </c>
       <c r="K7">
-        <v>9.77064029276365</v>
+        <v>13.95436262845939</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.976226615592569</v>
       </c>
       <c r="M7">
-        <v>10.53933934658543</v>
+        <v>9.785562251970301</v>
       </c>
       <c r="N7">
-        <v>13.51805692415422</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>17.41750884352627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.22973140856874</v>
+      </c>
+      <c r="P7">
+        <v>12.86475951424109</v>
+      </c>
+      <c r="Q7">
+        <v>14.62320052657573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.22801149037919</v>
+        <v>11.40918493002097</v>
       </c>
       <c r="C8">
-        <v>6.2359452586643</v>
+        <v>7.378197423205638</v>
       </c>
       <c r="D8">
-        <v>6.32531211744352</v>
+        <v>7.179819971979168</v>
       </c>
       <c r="E8">
-        <v>9.049740899751969</v>
+        <v>9.505802296117288</v>
       </c>
       <c r="F8">
-        <v>23.95251151048383</v>
+        <v>20.54585524975837</v>
       </c>
       <c r="G8">
-        <v>2.110507583129618</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>21.67318838330082</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.657500235420061</v>
       </c>
       <c r="J8">
-        <v>6.005674553092553</v>
+        <v>9.05324566204386</v>
       </c>
       <c r="K8">
-        <v>10.6437333167559</v>
+        <v>13.80080524106229</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.969584111020172</v>
       </c>
       <c r="M8">
-        <v>11.11060631040205</v>
+        <v>10.55651672891741</v>
       </c>
       <c r="N8">
-        <v>13.25789722606733</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>17.41847654545565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.82521398078374</v>
+      </c>
+      <c r="P8">
+        <v>12.68634463522351</v>
+      </c>
+      <c r="Q8">
+        <v>14.57600269815449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.16085703659466</v>
+        <v>13.10513323978351</v>
       </c>
       <c r="C9">
-        <v>7.011480554254835</v>
+        <v>8.251914979061771</v>
       </c>
       <c r="D9">
-        <v>6.94159897923652</v>
+        <v>7.85134615678392</v>
       </c>
       <c r="E9">
-        <v>9.595603746122563</v>
+        <v>10.07268595516925</v>
       </c>
       <c r="F9">
-        <v>24.6892343444841</v>
+        <v>21.08909864342465</v>
       </c>
       <c r="G9">
-        <v>2.099362194248848</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>22.21621262454498</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.614879354780255</v>
       </c>
       <c r="J9">
-        <v>6.012971060151107</v>
+        <v>8.950804918090419</v>
       </c>
       <c r="K9">
-        <v>12.17690519845189</v>
+        <v>13.55587773991048</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.975930979103541</v>
       </c>
       <c r="M9">
-        <v>12.18501014581213</v>
+        <v>11.91684340095257</v>
       </c>
       <c r="N9">
-        <v>12.76918974999576</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.52370122046682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.92694107926868</v>
+      </c>
+      <c r="P9">
+        <v>12.35377148202222</v>
+      </c>
+      <c r="Q9">
+        <v>14.55918532711738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.4371352110877</v>
+        <v>14.20677777349356</v>
       </c>
       <c r="C10">
-        <v>7.531347618023633</v>
+        <v>8.863651085824721</v>
       </c>
       <c r="D10">
-        <v>7.373573506599317</v>
+        <v>8.328540877857806</v>
       </c>
       <c r="E10">
-        <v>10.00142128248132</v>
+        <v>10.49557127338381</v>
       </c>
       <c r="F10">
-        <v>25.31362443302563</v>
+        <v>21.53026552601805</v>
       </c>
       <c r="G10">
-        <v>2.091581476424251</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>22.66811992936103</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.830047016219979</v>
       </c>
       <c r="J10">
-        <v>6.031162209113509</v>
+        <v>8.890350563944274</v>
       </c>
       <c r="K10">
-        <v>13.19461125057691</v>
+        <v>13.39346214237759</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.992345162512445</v>
       </c>
       <c r="M10">
-        <v>12.9390585385101</v>
+        <v>12.82236547965836</v>
       </c>
       <c r="N10">
-        <v>12.42175629674022</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.67006539983019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>12.690818837225</v>
+      </c>
+      <c r="P10">
+        <v>12.11981493404744</v>
+      </c>
+      <c r="Q10">
+        <v>14.57892301313851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.98715404558945</v>
+        <v>14.65980304073041</v>
       </c>
       <c r="C11">
-        <v>7.756863702406874</v>
+        <v>9.165146319651384</v>
       </c>
       <c r="D11">
-        <v>7.564861395320792</v>
+        <v>8.546432964930197</v>
       </c>
       <c r="E11">
-        <v>10.18639818696043</v>
+        <v>10.690390488729</v>
       </c>
       <c r="F11">
-        <v>25.61598235607311</v>
+        <v>21.7183290870402</v>
       </c>
       <c r="G11">
-        <v>2.088122887267796</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>22.84718514970072</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.931291642103167</v>
       </c>
       <c r="J11">
-        <v>6.042391143308883</v>
+        <v>8.859945046729106</v>
       </c>
       <c r="K11">
-        <v>13.63420391690074</v>
+        <v>13.30603267508604</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.001861421294709</v>
       </c>
       <c r="M11">
-        <v>13.27321766581149</v>
+        <v>13.21413103182089</v>
       </c>
       <c r="N11">
-        <v>12.26587976735142</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.75289901147944</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.03739012097722</v>
+      </c>
+      <c r="P11">
+        <v>12.01628795207202</v>
+      </c>
+      <c r="Q11">
+        <v>14.57938685927402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.19108847436557</v>
+        <v>14.83731698753639</v>
       </c>
       <c r="C12">
-        <v>7.840677631148719</v>
+        <v>9.260227361851731</v>
       </c>
       <c r="D12">
-        <v>7.63649952072586</v>
+        <v>8.625108035894248</v>
       </c>
       <c r="E12">
-        <v>10.25644631786621</v>
+        <v>10.76308683759707</v>
       </c>
       <c r="F12">
-        <v>25.73312235377281</v>
+        <v>21.80360981280354</v>
       </c>
       <c r="G12">
-        <v>2.086824193114423</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>22.93930235564293</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.966445542457351</v>
       </c>
       <c r="J12">
-        <v>6.047081823401961</v>
+        <v>8.852655087487296</v>
       </c>
       <c r="K12">
-        <v>13.7973297422046</v>
+        <v>13.28381671830733</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.006228902528146</v>
       </c>
       <c r="M12">
-        <v>13.39840114596046</v>
+        <v>13.35923962842453</v>
       </c>
       <c r="N12">
-        <v>12.20713601942548</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.78670200018332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.19377637341942</v>
+      </c>
+      <c r="P12">
+        <v>11.97705543511471</v>
+      </c>
+      <c r="Q12">
+        <v>14.59009913066117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.14736001863884</v>
+        <v>14.80126874737519</v>
       </c>
       <c r="C13">
-        <v>7.822697301190641</v>
+        <v>9.236320451807915</v>
       </c>
       <c r="D13">
-        <v>7.621107154076006</v>
+        <v>8.607592960586809</v>
       </c>
       <c r="E13">
-        <v>10.2413609056187</v>
+        <v>10.74721756693376</v>
       </c>
       <c r="F13">
-        <v>25.70777648171913</v>
+        <v>21.78767253049859</v>
       </c>
       <c r="G13">
-        <v>2.087103411484419</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>22.92378217543876</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.958245063135566</v>
       </c>
       <c r="J13">
-        <v>6.046051876471999</v>
+        <v>8.854929515613328</v>
       </c>
       <c r="K13">
-        <v>13.76234575859467</v>
+        <v>13.29059261678806</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.005342710481104</v>
       </c>
       <c r="M13">
-        <v>13.37150205828008</v>
+        <v>13.3280686504761</v>
       </c>
       <c r="N13">
-        <v>12.21977541896951</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.77931205031313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.16009758243674</v>
+      </c>
+      <c r="P13">
+        <v>11.9854138375489</v>
+      </c>
+      <c r="Q13">
+        <v>14.58958170233063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.00401865969393</v>
+        <v>14.67534588205287</v>
       </c>
       <c r="C14">
-        <v>7.763790890347856</v>
+        <v>9.171502934525881</v>
       </c>
       <c r="D14">
-        <v>7.57077135381121</v>
+        <v>8.552662138405616</v>
       </c>
       <c r="E14">
-        <v>10.1921613386466</v>
+        <v>10.69628031387236</v>
       </c>
       <c r="F14">
-        <v>25.62556651454987</v>
+        <v>21.72637868127551</v>
       </c>
       <c r="G14">
-        <v>2.088015826260972</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>22.85660172379869</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.933907877978879</v>
       </c>
       <c r="J14">
-        <v>6.042768180047213</v>
+        <v>8.859643954303142</v>
       </c>
       <c r="K14">
-        <v>13.64769114235493</v>
+        <v>13.30504952597894</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.00224344164118</v>
       </c>
       <c r="M14">
-        <v>13.28354416135285</v>
+        <v>13.22610674948919</v>
       </c>
       <c r="N14">
-        <v>12.26104137899372</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.75563063284655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.05026016171177</v>
+      </c>
+      <c r="P14">
+        <v>12.01302221566067</v>
+      </c>
+      <c r="Q14">
+        <v>14.58102778610882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.91565349035721</v>
+        <v>14.59367507432463</v>
       </c>
       <c r="C15">
-        <v>7.727502617052282</v>
+        <v>9.138594130244996</v>
       </c>
       <c r="D15">
-        <v>7.539833962501927</v>
+        <v>8.520123587174657</v>
       </c>
       <c r="E15">
-        <v>10.16202391855432</v>
+        <v>10.66550350839187</v>
       </c>
       <c r="F15">
-        <v>25.57555501223971</v>
+        <v>21.68408611793129</v>
       </c>
       <c r="G15">
-        <v>2.088576119512886</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>22.80698567927011</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.920345127604636</v>
       </c>
       <c r="J15">
-        <v>6.040814342503354</v>
+        <v>8.861169127597176</v>
       </c>
       <c r="K15">
-        <v>13.57702784592705</v>
+        <v>13.3100236199985</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.000254683768419</v>
       </c>
       <c r="M15">
-        <v>13.22948874963132</v>
+        <v>13.16336766865588</v>
       </c>
       <c r="N15">
-        <v>12.28635397212679</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.74144516440282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.98540087099575</v>
+      </c>
+      <c r="P15">
+        <v>12.03011689702354</v>
+      </c>
+      <c r="Q15">
+        <v>14.57231293086644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.40057932217507</v>
+        <v>14.14221897607934</v>
       </c>
       <c r="C16">
-        <v>7.516388154386341</v>
+        <v>8.903536340876112</v>
       </c>
       <c r="D16">
-        <v>7.360963077610369</v>
+        <v>8.324564544335967</v>
       </c>
       <c r="E16">
-        <v>9.989335498283266</v>
+        <v>10.48647415461727</v>
       </c>
       <c r="F16">
-        <v>25.2942341690294</v>
+        <v>21.47617789773248</v>
       </c>
       <c r="G16">
-        <v>2.091809077839522</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>22.58243090782626</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.83381186130414</v>
       </c>
       <c r="J16">
-        <v>6.030488982534635</v>
+        <v>8.88027510672277</v>
       </c>
       <c r="K16">
-        <v>13.16541439048251</v>
+        <v>13.36567039378339</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.990570160417812</v>
       </c>
       <c r="M16">
-        <v>12.91703487265908</v>
+        <v>12.79723704548918</v>
       </c>
       <c r="N16">
-        <v>12.43198446518201</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.66498755529196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.67179239518897</v>
+      </c>
+      <c r="P16">
+        <v>12.12770348713549</v>
+      </c>
+      <c r="Q16">
+        <v>14.54824504948925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.07680406448024</v>
+        <v>13.85763564234484</v>
       </c>
       <c r="C17">
-        <v>7.384059647605135</v>
+        <v>8.757029458396097</v>
       </c>
       <c r="D17">
-        <v>7.249857977362431</v>
+        <v>8.203320355040592</v>
       </c>
       <c r="E17">
-        <v>9.883452862481077</v>
+        <v>10.3767141684601</v>
       </c>
       <c r="F17">
-        <v>25.12635319250008</v>
+        <v>21.35146565397134</v>
       </c>
       <c r="G17">
-        <v>2.093812673134384</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>22.44864201778432</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.780429440525422</v>
       </c>
       <c r="J17">
-        <v>6.02492097831126</v>
+        <v>8.893069798942767</v>
       </c>
       <c r="K17">
-        <v>12.90693206789277</v>
+        <v>13.40138188183036</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.985339030743515</v>
       </c>
       <c r="M17">
-        <v>12.72302252814288</v>
+        <v>12.56733113655634</v>
       </c>
       <c r="N17">
-        <v>12.52186036110938</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.622316843652</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.47647426649589</v>
+      </c>
+      <c r="P17">
+        <v>12.1880858549046</v>
+      </c>
+      <c r="Q17">
+        <v>14.53588091062732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.88769697946185</v>
+        <v>13.70185637200178</v>
       </c>
       <c r="C18">
-        <v>7.306914885426366</v>
+        <v>8.653307063808199</v>
       </c>
       <c r="D18">
-        <v>7.185464283513836</v>
+        <v>8.12991719928265</v>
       </c>
       <c r="E18">
-        <v>9.822589444452063</v>
+        <v>10.31250749540609</v>
       </c>
       <c r="F18">
-        <v>25.03151664656083</v>
+        <v>21.29363344055697</v>
       </c>
       <c r="G18">
-        <v>2.094972742821944</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>22.39586582289272</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.745389529268847</v>
       </c>
       <c r="J18">
-        <v>6.021995591072182</v>
+        <v>8.904493975196216</v>
       </c>
       <c r="K18">
-        <v>12.75605885929967</v>
+        <v>13.43262992696352</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.982955527231313</v>
       </c>
       <c r="M18">
-        <v>12.6106015637252</v>
+        <v>12.43287450576832</v>
       </c>
       <c r="N18">
-        <v>12.57376094764692</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.59929774091575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.36205102275114</v>
+      </c>
+      <c r="P18">
+        <v>12.22271872823062</v>
+      </c>
+      <c r="Q18">
+        <v>14.53899611745573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.82317241706892</v>
+        <v>13.64038087403916</v>
       </c>
       <c r="C19">
-        <v>7.280617858298835</v>
+        <v>8.632366823774852</v>
       </c>
       <c r="D19">
-        <v>7.163579300380056</v>
+        <v>8.107466594147974</v>
       </c>
       <c r="E19">
-        <v>9.801990225433967</v>
+        <v>10.29164118640006</v>
       </c>
       <c r="F19">
-        <v>24.99970238619809</v>
+        <v>21.26432728733586</v>
       </c>
       <c r="G19">
-        <v>2.095366855917261</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>22.36073553321035</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.736669745852306</v>
       </c>
       <c r="J19">
-        <v>6.021052293961155</v>
+        <v>8.905590642907066</v>
       </c>
       <c r="K19">
-        <v>12.70459716862835</v>
+        <v>13.43547997174169</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.981908922882105</v>
       </c>
       <c r="M19">
-        <v>12.5723978841057</v>
+        <v>12.38723076282773</v>
       </c>
       <c r="N19">
-        <v>12.59136989395516</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.59176255878926</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.32392539695776</v>
+      </c>
+      <c r="P19">
+        <v>12.23470287995509</v>
+      </c>
+      <c r="Q19">
+        <v>14.53297853631699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.11156821975933</v>
+        <v>13.88905191374077</v>
       </c>
       <c r="C20">
-        <v>7.398253204289837</v>
+        <v>8.771266754266623</v>
       </c>
       <c r="D20">
-        <v>7.261736285957096</v>
+        <v>8.216023758617826</v>
       </c>
       <c r="E20">
-        <v>9.894720760938338</v>
+        <v>10.38830675108402</v>
       </c>
       <c r="F20">
-        <v>25.14404588436945</v>
+        <v>21.36563793511061</v>
       </c>
       <c r="G20">
-        <v>2.093598599245126</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>22.46450927082021</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.785787912478309</v>
       </c>
       <c r="J20">
-        <v>6.025484915292766</v>
+        <v>8.891956148202432</v>
       </c>
       <c r="K20">
-        <v>12.93467560550006</v>
+        <v>13.39831769861447</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.985897975015446</v>
       </c>
       <c r="M20">
-        <v>12.74376202970342</v>
+        <v>12.5919845294227</v>
       </c>
       <c r="N20">
-        <v>12.51227176767264</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.62670076597861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.49729557340205</v>
+      </c>
+      <c r="P20">
+        <v>12.18161392458386</v>
+      </c>
+      <c r="Q20">
+        <v>14.53784091254185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.04623903115503</v>
+        <v>14.70122350648049</v>
       </c>
       <c r="C21">
-        <v>7.781136147906127</v>
+        <v>9.21021655172876</v>
       </c>
       <c r="D21">
-        <v>7.585578208534644</v>
+        <v>8.572223750594112</v>
       </c>
       <c r="E21">
-        <v>10.20661279261854</v>
+        <v>10.71244317029978</v>
       </c>
       <c r="F21">
-        <v>25.64964177543494</v>
+        <v>21.73031640809146</v>
       </c>
       <c r="G21">
-        <v>2.08774753467234</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>22.85148553089813</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.944982460244749</v>
       </c>
       <c r="J21">
-        <v>6.043720669034667</v>
+        <v>8.854143372451558</v>
       </c>
       <c r="K21">
-        <v>13.6814583895553</v>
+        <v>13.28941452714126</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.002735943914948</v>
       </c>
       <c r="M21">
-        <v>13.30941688477175</v>
+        <v>13.2564288921263</v>
       </c>
       <c r="N21">
-        <v>12.24891311813909</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.76251956173119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.08343576247755</v>
+      </c>
+      <c r="P21">
+        <v>12.00533715171018</v>
+      </c>
+      <c r="Q21">
+        <v>14.57313003948106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.63179411790671</v>
+        <v>15.22139665291606</v>
       </c>
       <c r="C22">
-        <v>8.022139330826901</v>
+        <v>9.464596165662535</v>
       </c>
       <c r="D22">
-        <v>7.792557194806101</v>
+        <v>8.796300623371774</v>
       </c>
       <c r="E22">
-        <v>10.41044007973233</v>
+        <v>10.92275097183633</v>
       </c>
       <c r="F22">
-        <v>25.99548856556265</v>
+        <v>21.99564357211751</v>
       </c>
       <c r="G22">
-        <v>2.083987311314362</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>23.14885075419883</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.042927998965922</v>
       </c>
       <c r="J22">
-        <v>6.058201388054209</v>
+        <v>8.838248790463288</v>
       </c>
       <c r="K22">
-        <v>14.15007864053641</v>
+        <v>13.23798686936346</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.016621449961828</v>
       </c>
       <c r="M22">
-        <v>13.67117763502805</v>
+        <v>13.67294313041699</v>
       </c>
       <c r="N22">
-        <v>12.07842955814485</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.86552600232584</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>13.53161184397475</v>
+      </c>
+      <c r="P22">
+        <v>11.8912401995719</v>
+      </c>
+      <c r="Q22">
+        <v>14.61742749181487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.32157107676487</v>
+        <v>14.95943959051559</v>
       </c>
       <c r="C23">
-        <v>7.894356986192941</v>
+        <v>9.306064939365104</v>
       </c>
       <c r="D23">
-        <v>7.682529659151989</v>
+        <v>8.673055083364861</v>
       </c>
       <c r="E23">
-        <v>10.30167046377113</v>
+        <v>10.80908768635241</v>
       </c>
       <c r="F23">
-        <v>25.80949151965554</v>
+        <v>21.87004043554201</v>
       </c>
       <c r="G23">
-        <v>2.085988596542669</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>23.01872120537617</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.986478916141421</v>
       </c>
       <c r="J23">
-        <v>6.050233674031078</v>
+        <v>8.851333628848568</v>
       </c>
       <c r="K23">
-        <v>13.90173813555571</v>
+        <v>13.27865030683772</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.009480315352829</v>
       </c>
       <c r="M23">
-        <v>13.47884752674436</v>
+        <v>13.45188413167087</v>
       </c>
       <c r="N23">
-        <v>12.16928018894094</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.80921455607818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.2931993386342</v>
+      </c>
+      <c r="P23">
+        <v>11.95144961903321</v>
+      </c>
+      <c r="Q23">
+        <v>14.60551907483838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.09586058226898</v>
+        <v>13.89728321122443</v>
       </c>
       <c r="C24">
-        <v>7.391839621327562</v>
+        <v>8.725872756730798</v>
       </c>
       <c r="D24">
-        <v>7.256367712033686</v>
+        <v>8.203536029152319</v>
       </c>
       <c r="E24">
-        <v>9.889626509172658</v>
+        <v>10.38071094802553</v>
       </c>
       <c r="F24">
-        <v>25.1360417848415</v>
+        <v>21.38632357963597</v>
       </c>
       <c r="G24">
-        <v>2.093695356536117</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>22.50523765924513</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.77555237239302</v>
       </c>
       <c r="J24">
-        <v>6.025229101579688</v>
+        <v>8.900242745586164</v>
       </c>
       <c r="K24">
-        <v>12.92213981892492</v>
+        <v>13.42120339637771</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.986421307816854</v>
       </c>
       <c r="M24">
-        <v>12.73438843786522</v>
+        <v>12.58026316931525</v>
       </c>
       <c r="N24">
-        <v>12.51660605300561</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.62471408998907</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.48572924912247</v>
+      </c>
+      <c r="P24">
+        <v>12.1838990934747</v>
+      </c>
+      <c r="Q24">
+        <v>14.55674567505394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.66342892391674</v>
+        <v>12.64711265524107</v>
       </c>
       <c r="C25">
-        <v>6.810373719452036</v>
+        <v>8.062974949133357</v>
       </c>
       <c r="D25">
-        <v>6.778259396678084</v>
+        <v>7.679477301202867</v>
       </c>
       <c r="E25">
-        <v>9.446852370734446</v>
+        <v>9.920427284853242</v>
       </c>
       <c r="F25">
-        <v>24.47544407411505</v>
+        <v>20.90650109419988</v>
       </c>
       <c r="G25">
-        <v>2.102303281568769</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>22.01022167235894</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.540568590772145</v>
       </c>
       <c r="J25">
-        <v>6.008800011050034</v>
+        <v>8.968056493350996</v>
       </c>
       <c r="K25">
-        <v>11.78128770744072</v>
+        <v>13.5972924199791</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.971396363363453</v>
       </c>
       <c r="M25">
-        <v>11.90009213263005</v>
+        <v>11.56585002325457</v>
       </c>
       <c r="N25">
-        <v>12.8992467638886</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.48353933189924</v>
+        <v>11.63881151931765</v>
+      </c>
+      <c r="P25">
+        <v>12.44225056054994</v>
+      </c>
+      <c r="Q25">
+        <v>14.53800610174533</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.67609660358184</v>
+        <v>11.55335040591426</v>
       </c>
       <c r="C2">
-        <v>7.475795293044269</v>
+        <v>7.580907638957444</v>
       </c>
       <c r="D2">
-        <v>7.269541112190955</v>
+        <v>7.339923393510118</v>
       </c>
       <c r="E2">
-        <v>9.581547712729177</v>
+        <v>9.607321388127584</v>
       </c>
       <c r="F2">
-        <v>20.63289327522072</v>
+        <v>20.32730447426979</v>
       </c>
       <c r="G2">
-        <v>21.77200383954031</v>
+        <v>20.67216931887542</v>
       </c>
       <c r="I2">
-        <v>2.599686303528783</v>
+        <v>2.520829715780319</v>
       </c>
       <c r="J2">
-        <v>9.042118237008468</v>
+        <v>9.306851568325728</v>
       </c>
       <c r="K2">
-        <v>13.77782720013477</v>
+        <v>13.41315779553239</v>
       </c>
       <c r="L2">
-        <v>5.969619610046164</v>
+        <v>11.53416562031874</v>
       </c>
       <c r="M2">
-        <v>10.75480502555541</v>
+        <v>8.292734331696536</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.958520985242824</v>
       </c>
       <c r="O2">
-        <v>10.9806454794292</v>
+        <v>10.76726326187365</v>
       </c>
       <c r="P2">
-        <v>12.63917331857067</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.582123995397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.00142631605446</v>
+      </c>
+      <c r="R2">
+        <v>12.56628480301044</v>
+      </c>
+      <c r="S2">
+        <v>14.33781617270949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.939904184128</v>
+        <v>10.86379272519924</v>
       </c>
       <c r="C3">
-        <v>7.095399148109238</v>
+        <v>7.113193670450281</v>
       </c>
       <c r="D3">
-        <v>6.992020325839708</v>
+        <v>7.054774573806881</v>
       </c>
       <c r="E3">
-        <v>9.357876756236273</v>
+        <v>9.381653745842963</v>
       </c>
       <c r="F3">
-        <v>20.44512722764247</v>
+        <v>20.1639540602268</v>
       </c>
       <c r="G3">
-        <v>21.59663962211662</v>
+        <v>20.5712784115474</v>
       </c>
       <c r="I3">
-        <v>2.732240883893171</v>
+        <v>2.638737096146287</v>
       </c>
       <c r="J3">
-        <v>9.092465121411205</v>
+        <v>9.32906345460469</v>
       </c>
       <c r="K3">
-        <v>13.89143551661585</v>
+        <v>13.53632245641437</v>
       </c>
       <c r="L3">
-        <v>5.972544176097698</v>
+        <v>11.69517591147392</v>
       </c>
       <c r="M3">
-        <v>10.16698249087657</v>
+        <v>8.345784094449508</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.962172664739518</v>
       </c>
       <c r="O3">
-        <v>10.51992231127383</v>
+        <v>10.18206709012324</v>
       </c>
       <c r="P3">
-        <v>12.7773750652837</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.60998228059451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.53549147845386</v>
+      </c>
+      <c r="R3">
+        <v>12.69277259976637</v>
+      </c>
+      <c r="S3">
+        <v>14.37934551447527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.45913057244895</v>
+        <v>10.41363393715138</v>
       </c>
       <c r="C4">
-        <v>6.853844892747535</v>
+        <v>6.815023578057828</v>
       </c>
       <c r="D4">
-        <v>6.819523890531251</v>
+        <v>6.877650058645774</v>
       </c>
       <c r="E4">
-        <v>9.222958109334758</v>
+        <v>9.24558292057409</v>
       </c>
       <c r="F4">
-        <v>20.33997436329497</v>
+        <v>20.07253348701828</v>
       </c>
       <c r="G4">
-        <v>21.5018499007999</v>
+        <v>20.52359460781663</v>
       </c>
       <c r="I4">
-        <v>2.817664614153327</v>
+        <v>2.715075698340798</v>
       </c>
       <c r="J4">
-        <v>9.126535130262994</v>
+        <v>9.344201962745215</v>
       </c>
       <c r="K4">
-        <v>13.96553401265975</v>
+        <v>13.61514445926939</v>
       </c>
       <c r="L4">
-        <v>5.976629121427298</v>
+        <v>11.79739505192761</v>
       </c>
       <c r="M4">
-        <v>9.787322259159588</v>
+        <v>8.397080799358312</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.966673324267618</v>
       </c>
       <c r="O4">
-        <v>10.22984490725435</v>
+        <v>9.80416191974912</v>
       </c>
       <c r="P4">
-        <v>12.86445234782668</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.6339279369568</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.24185613909348</v>
+      </c>
+      <c r="R4">
+        <v>12.77278384663486</v>
+      </c>
+      <c r="S4">
+        <v>14.41059813659881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.25122641083773</v>
+        <v>10.21873590341204</v>
       </c>
       <c r="C5">
-        <v>6.761215488464803</v>
+        <v>6.699233533650947</v>
       </c>
       <c r="D5">
-        <v>6.750133378591001</v>
+        <v>6.806408371771103</v>
       </c>
       <c r="E5">
-        <v>9.169088543897606</v>
+        <v>9.191270640757418</v>
       </c>
       <c r="F5">
-        <v>20.29501368485554</v>
+        <v>20.03280376560213</v>
       </c>
       <c r="G5">
-        <v>21.45822198943931</v>
+        <v>20.49932678142818</v>
       </c>
       <c r="I5">
-        <v>2.856449977373207</v>
+        <v>2.750659113864227</v>
       </c>
       <c r="J5">
-        <v>9.13993186994491</v>
+        <v>9.349438453456365</v>
       </c>
       <c r="K5">
-        <v>13.99334237018492</v>
+        <v>13.6446333188277</v>
       </c>
       <c r="L5">
-        <v>5.978730779775059</v>
+        <v>11.83644500892891</v>
       </c>
       <c r="M5">
-        <v>9.628076800763422</v>
+        <v>8.420991520985664</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.968935682171438</v>
       </c>
       <c r="O5">
-        <v>10.11045597708269</v>
+        <v>9.645678401065345</v>
       </c>
       <c r="P5">
-        <v>12.90043135227694</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.6421131937431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.12093106354111</v>
+      </c>
+      <c r="R5">
+        <v>12.80594959467383</v>
+      </c>
+      <c r="S5">
+        <v>14.4214770954781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.21044921593387</v>
+        <v>10.1801747251391</v>
       </c>
       <c r="C6">
-        <v>6.755237462770693</v>
+        <v>6.690158710065896</v>
       </c>
       <c r="D6">
-        <v>6.740201712931526</v>
+        <v>6.796185309488531</v>
       </c>
       <c r="E6">
-        <v>9.160715023997088</v>
+        <v>9.182831425146592</v>
       </c>
       <c r="F6">
-        <v>20.28201745523638</v>
+        <v>20.02060655586691</v>
       </c>
       <c r="G6">
-        <v>21.44115582011304</v>
+        <v>20.48533824762875</v>
       </c>
       <c r="I6">
-        <v>2.866761362661165</v>
+        <v>2.76112929092863</v>
       </c>
       <c r="J6">
-        <v>9.140656450793809</v>
+        <v>9.348734639450623</v>
       </c>
       <c r="K6">
-        <v>13.99379932060766</v>
+        <v>13.64539655625059</v>
       </c>
       <c r="L6">
-        <v>5.978956304517787</v>
+        <v>11.83876972018476</v>
       </c>
       <c r="M6">
-        <v>9.601492775510298</v>
+        <v>8.423242075214233</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.969186039809959</v>
       </c>
       <c r="O6">
-        <v>10.0910952196523</v>
+        <v>9.619230900027015</v>
       </c>
       <c r="P6">
-        <v>12.90635809620512</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.63960267356561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.10131179365732</v>
+      </c>
+      <c r="R6">
+        <v>12.81145790958186</v>
+      </c>
+      <c r="S6">
+        <v>14.41937965331396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.44082392844789</v>
+        <v>10.39313658369122</v>
       </c>
       <c r="C7">
-        <v>6.87815145705803</v>
+        <v>6.835232796422145</v>
       </c>
       <c r="D7">
-        <v>6.82293128336249</v>
+        <v>6.884210830609934</v>
       </c>
       <c r="E7">
-        <v>9.223659527151092</v>
+        <v>9.247818065454918</v>
       </c>
       <c r="F7">
-        <v>20.32389065677242</v>
+        <v>20.04669069964075</v>
       </c>
       <c r="G7">
-        <v>21.47398111358682</v>
+        <v>20.57030176419279</v>
       </c>
       <c r="I7">
-        <v>2.828261226565239</v>
+        <v>2.727899899122216</v>
       </c>
       <c r="J7">
-        <v>9.122493286325488</v>
+        <v>9.309914535895656</v>
       </c>
       <c r="K7">
-        <v>13.95436262845939</v>
+        <v>13.60026751071637</v>
       </c>
       <c r="L7">
-        <v>5.976226615592569</v>
+        <v>11.78290830345775</v>
       </c>
       <c r="M7">
-        <v>9.785562251970301</v>
+        <v>8.389564990610239</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.966208433409178</v>
       </c>
       <c r="O7">
-        <v>10.22973140856874</v>
+        <v>9.798941359989911</v>
       </c>
       <c r="P7">
-        <v>12.86475951424109</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.62320052657573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.24051665632864</v>
+      </c>
+      <c r="R7">
+        <v>12.77327485885191</v>
+      </c>
+      <c r="S7">
+        <v>14.39309315561817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.40918493002097</v>
+        <v>11.29469659507896</v>
       </c>
       <c r="C8">
-        <v>7.378197423205638</v>
+        <v>7.438021977507467</v>
       </c>
       <c r="D8">
-        <v>7.179819971979168</v>
+        <v>7.25757737426165</v>
       </c>
       <c r="E8">
-        <v>9.505802296117288</v>
+        <v>9.5358205571815</v>
       </c>
       <c r="F8">
-        <v>20.54585524975837</v>
+        <v>20.21695514349902</v>
       </c>
       <c r="G8">
-        <v>21.67318838330082</v>
+        <v>20.84625441855</v>
       </c>
       <c r="I8">
-        <v>2.657500235420061</v>
+        <v>2.577334908152591</v>
       </c>
       <c r="J8">
-        <v>9.05324566204386</v>
+        <v>9.210606059848473</v>
       </c>
       <c r="K8">
-        <v>13.80080524106229</v>
+        <v>13.42725779985289</v>
       </c>
       <c r="L8">
-        <v>5.969584111020172</v>
+        <v>11.56424774437228</v>
       </c>
       <c r="M8">
-        <v>10.55651672891741</v>
+        <v>8.289593551762097</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.958536988944361</v>
       </c>
       <c r="O8">
-        <v>10.82521398078374</v>
+        <v>10.55902440987338</v>
       </c>
       <c r="P8">
-        <v>12.68634463522351</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.57600269815449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.840395032534</v>
+      </c>
+      <c r="R8">
+        <v>12.61018187723183</v>
+      </c>
+      <c r="S8">
+        <v>14.31419905241196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.10513323978351</v>
+        <v>12.8837585675617</v>
       </c>
       <c r="C9">
-        <v>8.251914979061771</v>
+        <v>8.507448733207767</v>
       </c>
       <c r="D9">
-        <v>7.85134615678392</v>
+        <v>7.949775661658247</v>
       </c>
       <c r="E9">
-        <v>10.07268595516925</v>
+        <v>10.10896785635661</v>
       </c>
       <c r="F9">
-        <v>21.08909864342465</v>
+        <v>20.68502251805802</v>
       </c>
       <c r="G9">
-        <v>22.21621262454498</v>
+        <v>21.27666810555559</v>
       </c>
       <c r="I9">
-        <v>2.614879354780255</v>
+        <v>2.667387617279194</v>
       </c>
       <c r="J9">
-        <v>8.950804918090419</v>
+        <v>9.141789282998714</v>
       </c>
       <c r="K9">
-        <v>13.55587773991048</v>
+        <v>13.14815731222538</v>
       </c>
       <c r="L9">
-        <v>5.975930979103541</v>
+        <v>11.19330035001606</v>
       </c>
       <c r="M9">
-        <v>11.91684340095257</v>
+        <v>8.26504732537124</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.962841983461782</v>
       </c>
       <c r="O9">
-        <v>11.92694107926868</v>
+        <v>11.91177661278643</v>
       </c>
       <c r="P9">
-        <v>12.35377148202222</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.55918532711738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.95231251949368</v>
+      </c>
+      <c r="R9">
+        <v>12.30822973955183</v>
+      </c>
+      <c r="S9">
+        <v>14.25103372347772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.20677777349356</v>
+        <v>13.90477307002304</v>
       </c>
       <c r="C10">
-        <v>8.863651085824721</v>
+        <v>9.221615689332333</v>
       </c>
       <c r="D10">
-        <v>8.328540877857806</v>
+        <v>8.457025747597095</v>
       </c>
       <c r="E10">
-        <v>10.49557127338381</v>
+        <v>10.54443623434491</v>
       </c>
       <c r="F10">
-        <v>21.53026552601805</v>
+        <v>21.0120815087703</v>
       </c>
       <c r="G10">
-        <v>22.66811992936103</v>
+        <v>22.08192654448032</v>
       </c>
       <c r="I10">
-        <v>2.830047016219979</v>
+        <v>2.858613424533988</v>
       </c>
       <c r="J10">
-        <v>8.890350563944274</v>
+        <v>8.932754392645764</v>
       </c>
       <c r="K10">
-        <v>13.39346214237759</v>
+        <v>12.93219210132287</v>
       </c>
       <c r="L10">
-        <v>5.992345162512445</v>
+        <v>10.9178854508484</v>
       </c>
       <c r="M10">
-        <v>12.82236547965836</v>
+        <v>8.31588287640821</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.977237575013383</v>
       </c>
       <c r="O10">
-        <v>12.690818837225</v>
+        <v>12.79602958159677</v>
       </c>
       <c r="P10">
-        <v>12.11981493404744</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.57892301313851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>12.7157181204052</v>
+      </c>
+      <c r="R10">
+        <v>12.10011474570694</v>
+      </c>
+      <c r="S10">
+        <v>14.19192590099257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.65980304073041</v>
+        <v>14.30459702721899</v>
       </c>
       <c r="C11">
-        <v>9.165146319651384</v>
+        <v>9.522795991087852</v>
       </c>
       <c r="D11">
-        <v>8.546432964930197</v>
+        <v>8.714680476626025</v>
       </c>
       <c r="E11">
-        <v>10.690390488729</v>
+        <v>10.75872052707651</v>
       </c>
       <c r="F11">
-        <v>21.7183290870402</v>
+        <v>21.05291858299404</v>
       </c>
       <c r="G11">
-        <v>22.84718514970072</v>
+        <v>23.18294621031517</v>
       </c>
       <c r="I11">
-        <v>2.931291642103167</v>
+        <v>2.948012596833188</v>
       </c>
       <c r="J11">
-        <v>8.859945046729106</v>
+        <v>8.575232847951117</v>
       </c>
       <c r="K11">
-        <v>13.30603267508604</v>
+        <v>12.78065214866579</v>
       </c>
       <c r="L11">
-        <v>6.001861421294709</v>
+        <v>10.76057269617797</v>
       </c>
       <c r="M11">
-        <v>13.21413103182089</v>
+        <v>8.305419634796058</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.985164929125895</v>
       </c>
       <c r="O11">
-        <v>13.03739012097722</v>
+        <v>13.15100768986978</v>
       </c>
       <c r="P11">
-        <v>12.01628795207202</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.57938685927402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.0425226177287</v>
+      </c>
+      <c r="R11">
+        <v>12.01375669717238</v>
+      </c>
+      <c r="S11">
+        <v>14.08601637073688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.83731698753639</v>
+        <v>14.46015732313758</v>
       </c>
       <c r="C12">
-        <v>9.260227361851731</v>
+        <v>9.611101126070743</v>
       </c>
       <c r="D12">
-        <v>8.625108035894248</v>
+        <v>8.811449503818265</v>
       </c>
       <c r="E12">
-        <v>10.76308683759707</v>
+        <v>10.8404480108332</v>
       </c>
       <c r="F12">
-        <v>21.80360981280354</v>
+        <v>21.07039789232162</v>
       </c>
       <c r="G12">
-        <v>22.93930235564293</v>
+        <v>23.7243849764532</v>
       </c>
       <c r="I12">
-        <v>2.966445542457351</v>
+        <v>2.977514025336042</v>
       </c>
       <c r="J12">
-        <v>8.852655087487296</v>
+        <v>8.424469624854176</v>
       </c>
       <c r="K12">
-        <v>13.28381671830733</v>
+        <v>12.72818672109059</v>
       </c>
       <c r="L12">
-        <v>6.006228902528146</v>
+        <v>10.70537913194307</v>
       </c>
       <c r="M12">
-        <v>13.35923962842453</v>
+        <v>8.307320980824786</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.988844251996268</v>
       </c>
       <c r="O12">
-        <v>13.19377637341942</v>
+        <v>13.27910929115496</v>
       </c>
       <c r="P12">
-        <v>11.97705543511471</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.59009913066117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.18236618929661</v>
+      </c>
+      <c r="R12">
+        <v>11.98155402802814</v>
+      </c>
+      <c r="S12">
+        <v>14.0470712030276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.80126874737519</v>
+        <v>14.42891660600887</v>
       </c>
       <c r="C13">
-        <v>9.236320451807915</v>
+        <v>9.588694347114993</v>
       </c>
       <c r="D13">
-        <v>8.607592960586809</v>
+        <v>8.789895096301235</v>
       </c>
       <c r="E13">
-        <v>10.74721756693376</v>
+        <v>10.82255590949914</v>
       </c>
       <c r="F13">
-        <v>21.78767253049859</v>
+        <v>21.06959209893678</v>
       </c>
       <c r="G13">
-        <v>22.92378217543876</v>
+        <v>23.60774471747488</v>
       </c>
       <c r="I13">
-        <v>2.958245063135566</v>
+        <v>2.970334982656801</v>
       </c>
       <c r="J13">
-        <v>8.854929515613328</v>
+        <v>8.45798233181819</v>
       </c>
       <c r="K13">
-        <v>13.29059261678806</v>
+        <v>12.74157256542572</v>
       </c>
       <c r="L13">
-        <v>6.005342710481104</v>
+        <v>10.71854057190214</v>
       </c>
       <c r="M13">
-        <v>13.3280686504761</v>
+        <v>8.308770884476255</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.988110626367382</v>
       </c>
       <c r="O13">
-        <v>13.16009758243674</v>
+        <v>13.25173259693632</v>
       </c>
       <c r="P13">
-        <v>11.9854138375489</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.58958170233063</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.15017523155784</v>
+      </c>
+      <c r="R13">
+        <v>11.98828448547971</v>
+      </c>
+      <c r="S13">
+        <v>14.05761840569976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.67534588205287</v>
+        <v>14.31836958499499</v>
       </c>
       <c r="C14">
-        <v>9.171502934525881</v>
+        <v>9.528616730992375</v>
       </c>
       <c r="D14">
-        <v>8.552662138405616</v>
+        <v>8.722334229785654</v>
       </c>
       <c r="E14">
-        <v>10.69628031387236</v>
+        <v>10.76531843243493</v>
       </c>
       <c r="F14">
-        <v>21.72637868127551</v>
+        <v>21.05562893792625</v>
       </c>
       <c r="G14">
-        <v>22.85660172379869</v>
+        <v>23.22736792182562</v>
       </c>
       <c r="I14">
-        <v>2.933907877978879</v>
+        <v>2.950079755311055</v>
       </c>
       <c r="J14">
-        <v>8.859643954303142</v>
+        <v>8.563330792421379</v>
       </c>
       <c r="K14">
-        <v>13.30504952597894</v>
+        <v>12.77722987892041</v>
       </c>
       <c r="L14">
-        <v>6.00224344164118</v>
+        <v>10.75658442726607</v>
       </c>
       <c r="M14">
-        <v>13.22610674948919</v>
+        <v>8.306364756780951</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.985492286501214</v>
       </c>
       <c r="O14">
-        <v>13.05026016171177</v>
+        <v>13.16164370117127</v>
       </c>
       <c r="P14">
-        <v>12.01302221566067</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.58102778610882</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.05235262971011</v>
+      </c>
+      <c r="R14">
+        <v>12.01102185851382</v>
+      </c>
+      <c r="S14">
+        <v>14.08374070146211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.59367507432463</v>
+        <v>14.24588349784423</v>
       </c>
       <c r="C15">
-        <v>9.138594130244996</v>
+        <v>9.498315172618248</v>
       </c>
       <c r="D15">
-        <v>8.520123587174657</v>
+        <v>8.682470858626475</v>
       </c>
       <c r="E15">
-        <v>10.66550350839187</v>
+        <v>10.73090711458048</v>
       </c>
       <c r="F15">
-        <v>21.68408611793129</v>
+        <v>21.0407657875202</v>
       </c>
       <c r="G15">
-        <v>22.80698567927011</v>
+        <v>22.99876835201722</v>
       </c>
       <c r="I15">
-        <v>2.920345127604636</v>
+        <v>2.939411026490853</v>
       </c>
       <c r="J15">
-        <v>8.861169127597176</v>
+        <v>8.624825731725656</v>
       </c>
       <c r="K15">
-        <v>13.3100236199985</v>
+        <v>12.79474360098354</v>
       </c>
       <c r="L15">
-        <v>6.000254683768419</v>
+        <v>10.77721717786322</v>
       </c>
       <c r="M15">
-        <v>13.16336766865588</v>
+        <v>8.301152074527955</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.983785705860196</v>
       </c>
       <c r="O15">
-        <v>12.98540087099575</v>
+        <v>13.10578760325629</v>
       </c>
       <c r="P15">
-        <v>12.03011689702354</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.57231293086644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.00084674297002</v>
+      </c>
+      <c r="R15">
+        <v>12.02537718259481</v>
+      </c>
+      <c r="S15">
+        <v>14.09513007381789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.14221897607934</v>
+        <v>13.84344095079251</v>
       </c>
       <c r="C16">
-        <v>8.903536340876112</v>
+        <v>9.264533325110721</v>
       </c>
       <c r="D16">
-        <v>8.324564544335967</v>
+        <v>8.450970371888742</v>
       </c>
       <c r="E16">
-        <v>10.48647415461727</v>
+        <v>10.53433752116399</v>
       </c>
       <c r="F16">
-        <v>21.47617789773248</v>
+        <v>20.96608386387783</v>
       </c>
       <c r="G16">
-        <v>22.58243090782626</v>
+        <v>21.94723513753074</v>
       </c>
       <c r="I16">
-        <v>2.83381186130414</v>
+        <v>2.866362267665023</v>
       </c>
       <c r="J16">
-        <v>8.88027510672277</v>
+        <v>8.941998099387181</v>
       </c>
       <c r="K16">
-        <v>13.36567039378339</v>
+        <v>12.90979011152202</v>
       </c>
       <c r="L16">
-        <v>5.990570160417812</v>
+        <v>10.90646344897885</v>
       </c>
       <c r="M16">
-        <v>12.79723704548918</v>
+        <v>8.288227217896324</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.975548248787922</v>
       </c>
       <c r="O16">
-        <v>12.67179239518897</v>
+        <v>12.77292864589516</v>
       </c>
       <c r="P16">
-        <v>12.12770348713549</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.54824504948925</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.69725347601995</v>
+      </c>
+      <c r="R16">
+        <v>12.10793113391821</v>
+      </c>
+      <c r="S16">
+        <v>14.16750078295258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.85763564234484</v>
+        <v>13.58566683508061</v>
       </c>
       <c r="C17">
-        <v>8.757029458396097</v>
+        <v>9.108773792302973</v>
       </c>
       <c r="D17">
-        <v>8.203320355040592</v>
+        <v>8.313075679458795</v>
       </c>
       <c r="E17">
-        <v>10.3767141684601</v>
+        <v>10.41671640143611</v>
       </c>
       <c r="F17">
-        <v>21.35146565397134</v>
+        <v>20.90252382440585</v>
       </c>
       <c r="G17">
-        <v>22.44864201778432</v>
+        <v>21.47374725368434</v>
       </c>
       <c r="I17">
-        <v>2.780429440525422</v>
+        <v>2.820776368877725</v>
       </c>
       <c r="J17">
-        <v>8.893069798942767</v>
+        <v>9.08888504979268</v>
       </c>
       <c r="K17">
-        <v>13.40138188183036</v>
+        <v>12.97284696631601</v>
       </c>
       <c r="L17">
-        <v>5.985339030743515</v>
+        <v>10.9818502971549</v>
       </c>
       <c r="M17">
-        <v>12.56733113655634</v>
+        <v>8.276964888966061</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.971056548544284</v>
       </c>
       <c r="O17">
-        <v>12.47647426649589</v>
+        <v>12.55790890625495</v>
       </c>
       <c r="P17">
-        <v>12.1880858549046</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.53588091062732</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.50573936674662</v>
+      </c>
+      <c r="R17">
+        <v>12.16030012682479</v>
+      </c>
+      <c r="S17">
+        <v>14.19874121308675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.70185637200178</v>
+        <v>13.44409706692226</v>
       </c>
       <c r="C18">
-        <v>8.653307063808199</v>
+        <v>8.9947646303466</v>
       </c>
       <c r="D18">
-        <v>8.12991719928265</v>
+        <v>8.232029519172263</v>
       </c>
       <c r="E18">
-        <v>10.31250749540609</v>
+        <v>10.34901581029515</v>
       </c>
       <c r="F18">
-        <v>21.29363344055697</v>
+        <v>20.87256570357092</v>
       </c>
       <c r="G18">
-        <v>22.39586582289272</v>
+        <v>21.28436236359141</v>
       </c>
       <c r="I18">
-        <v>2.745389529268847</v>
+        <v>2.78886504871779</v>
       </c>
       <c r="J18">
-        <v>8.904493975196216</v>
+        <v>9.156696430277531</v>
       </c>
       <c r="K18">
-        <v>13.43262992696352</v>
+        <v>13.01616034892075</v>
       </c>
       <c r="L18">
-        <v>5.982955527231313</v>
+        <v>11.03051318809369</v>
       </c>
       <c r="M18">
-        <v>12.43287450576832</v>
+        <v>8.277821959274609</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.969048754197851</v>
       </c>
       <c r="O18">
-        <v>12.36205102275114</v>
+        <v>12.42995262242052</v>
       </c>
       <c r="P18">
-        <v>12.22271872823062</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.53899611745573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.39265762948234</v>
+      </c>
+      <c r="R18">
+        <v>12.19046126438052</v>
+      </c>
+      <c r="S18">
+        <v>14.22137227768977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.64038087403916</v>
+        <v>13.38722806976457</v>
       </c>
       <c r="C19">
-        <v>8.632366823774852</v>
+        <v>8.970644914817564</v>
       </c>
       <c r="D19">
-        <v>8.107466594147974</v>
+        <v>8.207348621120907</v>
       </c>
       <c r="E19">
-        <v>10.29164118640006</v>
+        <v>10.32715244655722</v>
       </c>
       <c r="F19">
-        <v>21.26432728733586</v>
+        <v>20.85147292904525</v>
       </c>
       <c r="G19">
-        <v>22.36073553321035</v>
+        <v>21.21233271366843</v>
       </c>
       <c r="I19">
-        <v>2.736669745852306</v>
+        <v>2.782050518124439</v>
       </c>
       <c r="J19">
-        <v>8.905590642907066</v>
+        <v>9.173339951510737</v>
       </c>
       <c r="K19">
-        <v>13.43547997174169</v>
+        <v>13.02294559530612</v>
       </c>
       <c r="L19">
-        <v>5.981908922882105</v>
+        <v>11.04147942065569</v>
       </c>
       <c r="M19">
-        <v>12.38723076282773</v>
+        <v>8.271614042178866</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.968119079161983</v>
       </c>
       <c r="O19">
-        <v>12.32392539695776</v>
+        <v>12.38617157421665</v>
       </c>
       <c r="P19">
-        <v>12.23470287995509</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.53297853631699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.35484618838757</v>
+      </c>
+      <c r="R19">
+        <v>12.20117975284809</v>
+      </c>
+      <c r="S19">
+        <v>14.22114183891388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.88905191374077</v>
+        <v>13.61435365751346</v>
       </c>
       <c r="C20">
-        <v>8.771266754266623</v>
+        <v>9.124287572770106</v>
       </c>
       <c r="D20">
-        <v>8.216023758617826</v>
+        <v>8.327345606339263</v>
       </c>
       <c r="E20">
-        <v>10.38830675108402</v>
+        <v>10.42903658192053</v>
       </c>
       <c r="F20">
-        <v>21.36563793511061</v>
+        <v>20.91094675603958</v>
       </c>
       <c r="G20">
-        <v>22.46450927082021</v>
+        <v>21.51970274108573</v>
       </c>
       <c r="I20">
-        <v>2.785787912478309</v>
+        <v>2.825231758496905</v>
       </c>
       <c r="J20">
-        <v>8.891956148202432</v>
+        <v>9.07556758681369</v>
       </c>
       <c r="K20">
-        <v>13.39831769861447</v>
+        <v>12.96716334638736</v>
       </c>
       <c r="L20">
-        <v>5.985897975015446</v>
+        <v>10.97450445929767</v>
       </c>
       <c r="M20">
-        <v>12.5919845294227</v>
+        <v>8.278919307268382</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.971542359861201</v>
       </c>
       <c r="O20">
-        <v>12.49729557340205</v>
+        <v>12.5811876566539</v>
       </c>
       <c r="P20">
-        <v>12.18161392458386</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.53784091254185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.52624304158549</v>
+      </c>
+      <c r="R20">
+        <v>12.15462026142943</v>
+      </c>
+      <c r="S20">
+        <v>14.19661933255691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.70122350648049</v>
+        <v>14.33318871317207</v>
       </c>
       <c r="C21">
-        <v>9.21021655172876</v>
+        <v>9.550893660449109</v>
       </c>
       <c r="D21">
-        <v>8.572223750594112</v>
+        <v>8.754996081676655</v>
       </c>
       <c r="E21">
-        <v>10.71244317029978</v>
+        <v>10.78823489631669</v>
       </c>
       <c r="F21">
-        <v>21.73031640809146</v>
+        <v>21.01243801444097</v>
       </c>
       <c r="G21">
-        <v>22.85148553089813</v>
+        <v>23.58349631928029</v>
       </c>
       <c r="I21">
-        <v>2.944982460244749</v>
+        <v>2.960081830205733</v>
       </c>
       <c r="J21">
-        <v>8.854143372451558</v>
+        <v>8.447274207586323</v>
       </c>
       <c r="K21">
-        <v>13.28941452714126</v>
+        <v>12.74243041351938</v>
       </c>
       <c r="L21">
-        <v>6.002735943914948</v>
+        <v>10.72981789189607</v>
       </c>
       <c r="M21">
-        <v>13.2564288921263</v>
+        <v>8.284682088629552</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.985621216372746</v>
       </c>
       <c r="O21">
-        <v>13.08343576247755</v>
+        <v>13.17882395090384</v>
       </c>
       <c r="P21">
-        <v>12.00533715171018</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.57313003948106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.07438922003428</v>
+      </c>
+      <c r="R21">
+        <v>12.00668454732345</v>
+      </c>
+      <c r="S21">
+        <v>14.04155304571106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.22139665291606</v>
+        <v>14.79276767131698</v>
       </c>
       <c r="C22">
-        <v>9.464596165662535</v>
+        <v>9.790769398540695</v>
       </c>
       <c r="D22">
-        <v>8.796300623371774</v>
+        <v>9.027994246846967</v>
       </c>
       <c r="E22">
-        <v>10.92275097183633</v>
+        <v>11.02305468184263</v>
       </c>
       <c r="F22">
-        <v>21.99564357211751</v>
+        <v>21.090898444095</v>
       </c>
       <c r="G22">
-        <v>23.14885075419883</v>
+        <v>25.10912743913563</v>
       </c>
       <c r="I22">
-        <v>3.042927998965922</v>
+        <v>3.041130245962692</v>
       </c>
       <c r="J22">
-        <v>8.838248790463288</v>
+        <v>8.082983869534258</v>
       </c>
       <c r="K22">
-        <v>13.23798686936346</v>
+        <v>12.60546505705994</v>
       </c>
       <c r="L22">
-        <v>6.016621449961828</v>
+        <v>10.58155300223972</v>
       </c>
       <c r="M22">
-        <v>13.67294313041699</v>
+        <v>8.307261532697717</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.997555688838355</v>
       </c>
       <c r="O22">
-        <v>13.53161184397475</v>
+        <v>13.55001262512775</v>
       </c>
       <c r="P22">
-        <v>11.8912401995719</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.61742749181487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>13.50329990226641</v>
+      </c>
+      <c r="R22">
+        <v>11.91284356315642</v>
+      </c>
+      <c r="S22">
+        <v>13.9477239987316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.95943959051559</v>
+        <v>14.56761068460548</v>
       </c>
       <c r="C23">
-        <v>9.306064939365104</v>
+        <v>9.650208425596729</v>
       </c>
       <c r="D23">
-        <v>8.673055083364861</v>
+        <v>8.871910580067564</v>
       </c>
       <c r="E23">
-        <v>10.80908768635241</v>
+        <v>10.8927416137559</v>
       </c>
       <c r="F23">
-        <v>21.87004043554201</v>
+        <v>21.08954532145025</v>
       </c>
       <c r="G23">
-        <v>23.01872120537617</v>
+        <v>24.12336934444133</v>
       </c>
       <c r="I23">
-        <v>2.986478916141421</v>
+        <v>2.992983381121075</v>
       </c>
       <c r="J23">
-        <v>8.851333628848568</v>
+        <v>8.326492825816674</v>
       </c>
       <c r="K23">
-        <v>13.27865030683772</v>
+        <v>12.70121841352335</v>
       </c>
       <c r="L23">
-        <v>6.009480315352829</v>
+        <v>10.67435785306836</v>
       </c>
       <c r="M23">
-        <v>13.45188413167087</v>
+        <v>8.315404231821976</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.991627051814553</v>
       </c>
       <c r="O23">
-        <v>13.2931993386342</v>
+        <v>13.35992383618904</v>
       </c>
       <c r="P23">
-        <v>11.95144961903321</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.60551907483838</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.27712833107635</v>
+      </c>
+      <c r="R23">
+        <v>11.96039134971912</v>
+      </c>
+      <c r="S23">
+        <v>14.02752746620234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.89728321122443</v>
+        <v>13.62381637963568</v>
       </c>
       <c r="C24">
-        <v>8.725872756730798</v>
+        <v>9.07577976125282</v>
       </c>
       <c r="D24">
-        <v>8.203536029152319</v>
+        <v>8.314082402967973</v>
       </c>
       <c r="E24">
-        <v>10.38071094802553</v>
+        <v>10.42108212277318</v>
       </c>
       <c r="F24">
-        <v>21.38632357963597</v>
+        <v>20.93422839575234</v>
       </c>
       <c r="G24">
-        <v>22.50523765924513</v>
+        <v>21.5477355688455</v>
       </c>
       <c r="I24">
-        <v>2.77555237239302</v>
+        <v>2.813137234911224</v>
       </c>
       <c r="J24">
-        <v>8.900242745586164</v>
+        <v>9.08892035200661</v>
       </c>
       <c r="K24">
-        <v>13.42120339637771</v>
+        <v>12.99014507990085</v>
       </c>
       <c r="L24">
-        <v>5.986421307816854</v>
+        <v>10.99200270273299</v>
       </c>
       <c r="M24">
-        <v>12.58026316931525</v>
+        <v>8.295699553308324</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.972103285813401</v>
       </c>
       <c r="O24">
-        <v>12.48572924912247</v>
+        <v>12.57005745694276</v>
       </c>
       <c r="P24">
-        <v>12.1838990934747</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.55674567505394</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.51481475840213</v>
+      </c>
+      <c r="R24">
+        <v>12.15600195233441</v>
+      </c>
+      <c r="S24">
+        <v>14.21710997330947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.64711265524107</v>
+        <v>12.45602540088056</v>
       </c>
       <c r="C25">
-        <v>8.062974949133357</v>
+        <v>8.278280549639847</v>
       </c>
       <c r="D25">
-        <v>7.679477301202867</v>
+        <v>7.768419802175142</v>
       </c>
       <c r="E25">
-        <v>9.920427284853242</v>
+        <v>9.952991595126228</v>
       </c>
       <c r="F25">
-        <v>20.90650109419988</v>
+        <v>20.53710334014799</v>
       </c>
       <c r="G25">
-        <v>22.01022167235894</v>
+        <v>20.99322351055012</v>
       </c>
       <c r="I25">
-        <v>2.540568590772145</v>
+        <v>2.60409567323646</v>
       </c>
       <c r="J25">
-        <v>8.968056493350996</v>
+        <v>9.193147709606114</v>
       </c>
       <c r="K25">
-        <v>13.5972924199791</v>
+        <v>13.20619697687793</v>
       </c>
       <c r="L25">
-        <v>5.971396363363453</v>
+        <v>11.27952741784735</v>
       </c>
       <c r="M25">
-        <v>11.56585002325457</v>
+        <v>8.243970102933423</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.958968847791001</v>
       </c>
       <c r="O25">
-        <v>11.63881151931765</v>
+        <v>11.56707757912036</v>
       </c>
       <c r="P25">
-        <v>12.44225056054994</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.53800610174533</v>
+        <v>11.66333499297657</v>
+      </c>
+      <c r="R25">
+        <v>12.38833562789278</v>
+      </c>
+      <c r="S25">
+        <v>14.25315063778589</v>
       </c>
     </row>
   </sheetData>
